--- a/YOG.xlsx
+++ b/YOG.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickito\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18165" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$1:$C$274</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="902">
   <si>
     <t>YARI Nazi</t>
   </si>
@@ -3088,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A716" workbookViewId="0">
-      <selection activeCell="C779" sqref="C779"/>
+    <sheetView tabSelected="1" topLeftCell="A810" workbookViewId="0">
+      <selection activeCell="C816" sqref="C816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14503,6 +14499,9 @@
       <c r="B815" t="s">
         <v>1</v>
       </c>
+      <c r="C815" t="s">
+        <v>75</v>
+      </c>
       <c r="D815" t="s">
         <v>901</v>
       </c>

--- a/YOG.xlsx
+++ b/YOG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18165" windowHeight="5175"/>
@@ -13,7 +13,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$1:$C$274</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4292" uniqueCount="1161">
   <si>
     <t>YARI Nazi</t>
   </si>
@@ -2731,16 +2730,807 @@
   </si>
   <si>
     <t>Chile</t>
+  </si>
+  <si>
+    <t>CHANG Chunyu</t>
+  </si>
+  <si>
+    <t>CHANG Liling</t>
+  </si>
+  <si>
+    <t>HSUEH Maohung</t>
+  </si>
+  <si>
+    <t>LI Yunchen</t>
+  </si>
+  <si>
+    <t>LIN Ting-Wei</t>
+  </si>
+  <si>
+    <t>LIN Yusian</t>
+  </si>
+  <si>
+    <t>WANG You-Hsuan</t>
+  </si>
+  <si>
+    <t>WANG Yuhsuan</t>
+  </si>
+  <si>
+    <t>WEN Hua-Yu</t>
+  </si>
+  <si>
+    <t>YANG Juihsuan</t>
+  </si>
+  <si>
+    <t>YANG Weiyuan</t>
+  </si>
+  <si>
+    <t>CHEN Shiaucheng</t>
+  </si>
+  <si>
+    <t>HUANG Yinhsuan</t>
+  </si>
+  <si>
+    <t>CHAN Yuchen</t>
+  </si>
+  <si>
+    <t>CHAO Yuchen</t>
+  </si>
+  <si>
+    <t>CHEN Guanru</t>
+  </si>
+  <si>
+    <t>CHEN Shufen</t>
+  </si>
+  <si>
+    <t>CHENG Shinyen</t>
+  </si>
+  <si>
+    <t>CHIU Pinsheng</t>
+  </si>
+  <si>
+    <t>HSIEH Chihsuan</t>
+  </si>
+  <si>
+    <t>HSU Yuchen</t>
+  </si>
+  <si>
+    <t>KE Xinping</t>
+  </si>
+  <si>
+    <t>LIN Hungwen</t>
+  </si>
+  <si>
+    <t>LIN Pinchun</t>
+  </si>
+  <si>
+    <t>PAN Yuanjen</t>
+  </si>
+  <si>
+    <t>SHEN Yunting</t>
+  </si>
+  <si>
+    <t>SU Weilun</t>
+  </si>
+  <si>
+    <t>TING Hsihsien</t>
+  </si>
+  <si>
+    <t>TSAI Peiling</t>
+  </si>
+  <si>
+    <t>WU Pengwei</t>
+  </si>
+  <si>
+    <t>YAN Yujia</t>
+  </si>
+  <si>
+    <t>KennyG</t>
+  </si>
+  <si>
+    <t>CHEN Yi-Tung</t>
+  </si>
+  <si>
+    <t>YEH Cheng</t>
+  </si>
+  <si>
+    <t>AN Hoyu</t>
+  </si>
+  <si>
+    <t>LIN Chuantai</t>
+  </si>
+  <si>
+    <t>LIU Li-Ling</t>
+  </si>
+  <si>
+    <t>WU Xiao-Zhang</t>
+  </si>
+  <si>
+    <t>CHEN Szu-Chi</t>
+  </si>
+  <si>
+    <t>CHEN Yu-Rong</t>
+  </si>
+  <si>
+    <t>CHUANG Mu-Lun</t>
+  </si>
+  <si>
+    <t>WANG Kuanhung</t>
+  </si>
+  <si>
+    <t>CHANG Chiawei</t>
+  </si>
+  <si>
+    <t>WANG Kuanchih</t>
+  </si>
+  <si>
+    <t>CHEN Yu-Hsuan</t>
+  </si>
+  <si>
+    <t>LAI Tzu-Hsuan</t>
+  </si>
+  <si>
+    <t>HSU Ani</t>
+  </si>
+  <si>
+    <t>LEE Meng-En</t>
+  </si>
+  <si>
+    <t>QIU Hong-Sheng</t>
+  </si>
+  <si>
+    <t>GARLAND Joanna</t>
+  </si>
+  <si>
+    <t>HO Ray</t>
+  </si>
+  <si>
+    <t>LIANG En Shuo</t>
+  </si>
+  <si>
+    <t>TSENG Chun Hsin</t>
+  </si>
+  <si>
+    <t>LIN Yun-Ju</t>
+  </si>
+  <si>
+    <t>SU Pei-Ling</t>
+  </si>
+  <si>
+    <t>CHANG Rongjia</t>
+  </si>
+  <si>
+    <t>TANG Chihchun</t>
+  </si>
+  <si>
+    <t>CHEN Yun-Yun</t>
+  </si>
+  <si>
+    <t>WANG Chihling</t>
+  </si>
+  <si>
+    <t>China Taipei</t>
+  </si>
+  <si>
+    <t>KESIDIS Nikolaos</t>
+  </si>
+  <si>
+    <t>Chipre</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>PINGOU Anastasia</t>
+  </si>
+  <si>
+    <t>BALARJISHVILI Georgios</t>
+  </si>
+  <si>
+    <t>ANTONIOU Kalia</t>
+  </si>
+  <si>
+    <t>SCHEGOLEVA Alexandra</t>
+  </si>
+  <si>
+    <t>BEDOYA Karen</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>CANCHILA Sebastian</t>
+  </si>
+  <si>
+    <t>CARACAS Cabezas</t>
+  </si>
+  <si>
+    <t>CUESTA Manuel Jeremias</t>
+  </si>
+  <si>
+    <t>GONZALEZ ECHEVERRIA Angie Saray</t>
+  </si>
+  <si>
+    <t>MENA Daniela</t>
+  </si>
+  <si>
+    <t>OCHOA Luis Alberto</t>
+  </si>
+  <si>
+    <t>ROJAS Christian</t>
+  </si>
+  <si>
+    <t>SUARES Luceris</t>
+  </si>
+  <si>
+    <t>VALLECILLA Shary</t>
+  </si>
+  <si>
+    <t>BOLLE CARRILLO Gabriela</t>
+  </si>
+  <si>
+    <t>BOTERO Erika</t>
+  </si>
+  <si>
+    <t>ECHEVERRY Estefanya</t>
+  </si>
+  <si>
+    <t>GOMEZ JARAMILLO Nicolas David</t>
+  </si>
+  <si>
+    <t>LARA Angie</t>
+  </si>
+  <si>
+    <t>MARTINEZ Sebastian</t>
+  </si>
+  <si>
+    <t>ZAPATA Alex</t>
+  </si>
+  <si>
+    <t>RAMIREZ VALENCIA Juan Camilo</t>
+  </si>
+  <si>
+    <t>RIVERA Jennifer</t>
+  </si>
+  <si>
+    <t>MONTEALEGRE Juan</t>
+  </si>
+  <si>
+    <t>PENCUE Nikol</t>
+  </si>
+  <si>
+    <t>JUNKAR ACERO Kely Valentina</t>
+  </si>
+  <si>
+    <t>SANTOYA ORTIZ Yineth Milena</t>
+  </si>
+  <si>
+    <t>VILLAR MANJARRES Estiven Jose</t>
+  </si>
+  <si>
+    <t>CALLE PEREZ Brandon</t>
+  </si>
+  <si>
+    <t>ZULUAGA CUEVAS Diego Arm</t>
+  </si>
+  <si>
+    <t>BECERRA QUINTANILLA Valen</t>
+  </si>
+  <si>
+    <t>MORALES RESTREPO Juan Manuel</t>
+  </si>
+  <si>
+    <t>RINCON VELASCO Anthony</t>
+  </si>
+  <si>
+    <t>ROMAN MANTILLA Maria Clara</t>
+  </si>
+  <si>
+    <t>ANGULO REINA Jhony Andres</t>
+  </si>
+  <si>
+    <t>RUEDA RUEDA Gabriela Isabel</t>
+  </si>
+  <si>
+    <t>IBARRA Carmen</t>
+  </si>
+  <si>
+    <t>CARDENAS Karen</t>
+  </si>
+  <si>
+    <t>JIMENEZ Marta</t>
+  </si>
+  <si>
+    <t>MEJIA Laura</t>
+  </si>
+  <si>
+    <t>MUNOZ Valeria</t>
+  </si>
+  <si>
+    <t>OSORIO Marcela</t>
+  </si>
+  <si>
+    <t>PEREIRA Silvia</t>
+  </si>
+  <si>
+    <t>PEREZ VALDERRAMA Isabella</t>
+  </si>
+  <si>
+    <t>RAMIREZ Isabel</t>
+  </si>
+  <si>
+    <t>SARMIENTO Stefania</t>
+  </si>
+  <si>
+    <t>SOTO Leidy</t>
+  </si>
+  <si>
+    <t>TAPIAS Valentina</t>
+  </si>
+  <si>
+    <t>RESTREPO GARCIA Daniel</t>
+  </si>
+  <si>
+    <t>AYALA TAMI Laura Camila</t>
+  </si>
+  <si>
+    <t>MEJIA Nicolas</t>
+  </si>
+  <si>
+    <t>OSORIO SERRANO Maria Camila</t>
+  </si>
+  <si>
+    <t>CADENA David</t>
+  </si>
+  <si>
+    <t>RUEDA VARGAS Juana</t>
+  </si>
+  <si>
+    <t>BARBOSA SANCHEZ Maria Fernanda</t>
+  </si>
+  <si>
+    <t>TRIANA PENA Cristian Andres</t>
+  </si>
+  <si>
+    <t>Comoras</t>
+  </si>
+  <si>
+    <t>DAHALANE Mohamed Mouigni</t>
+  </si>
+  <si>
+    <t>MOINA ROUZOUNA Youssouf</t>
+  </si>
+  <si>
+    <t>ABDALLAH ATTOUMANI Maria</t>
+  </si>
+  <si>
+    <t>KODJO Gnanzou Desire</t>
+  </si>
+  <si>
+    <t>IBO Koumba</t>
+  </si>
+  <si>
+    <t>EYENI Franck</t>
+  </si>
+  <si>
+    <t>Costa de marfil</t>
+  </si>
+  <si>
+    <t>SAMBA Evedieu</t>
+  </si>
+  <si>
+    <t>BOYENGUE Eddie Corneille</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>LIZANO AVILA Mauricio</t>
+  </si>
+  <si>
+    <t>DYNER VILLA Karina</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>BAEZ LOACIGA Dilan</t>
+  </si>
+  <si>
+    <t>CARVAJAL MONTERO Jafeth</t>
+  </si>
+  <si>
+    <t>CHAVARRIA RODRIGUEZ Jos</t>
+  </si>
+  <si>
+    <t>CORRALES ARAYA Ivan Jafeth</t>
+  </si>
+  <si>
+    <t>GARRO COTO Gabriel Andres</t>
+  </si>
+  <si>
+    <t>LEON PEREZ Yosel Andrey</t>
+  </si>
+  <si>
+    <t>MADRIZ ARAYA Jose Pablo</t>
+  </si>
+  <si>
+    <t>MAIRENA ORTEGA Jose Daniel</t>
+  </si>
+  <si>
+    <t>MORA CUBILLO Sebastian</t>
+  </si>
+  <si>
+    <t>VADO MONCADA Kevin Antonhy</t>
+  </si>
+  <si>
+    <t>MONTOYA Camila</t>
+  </si>
+  <si>
+    <t>PADRON SALAZAR Maria Beatriz</t>
+  </si>
+  <si>
+    <t>SOLIS ROSALES David</t>
+  </si>
+  <si>
+    <t>FALLAS LOBO Criforth</t>
+  </si>
+  <si>
+    <t>LEZCANO VELIZ Alexandre</t>
+  </si>
+  <si>
+    <t>BRKLJACIC Ana</t>
+  </si>
+  <si>
+    <t>BANIC Rea</t>
+  </si>
+  <si>
+    <t>BOSNJAK Mia</t>
+  </si>
+  <si>
+    <t>BRZICA Tin</t>
+  </si>
+  <si>
+    <t>BUDIC Mateo</t>
+  </si>
+  <si>
+    <t>HANCIC Ivan Antonio</t>
+  </si>
+  <si>
+    <t>KOLIC Borna</t>
+  </si>
+  <si>
+    <t>LOVRENCEVIC Petra</t>
+  </si>
+  <si>
+    <t>LUKSIC Anja Vida</t>
+  </si>
+  <si>
+    <t>MALEC Ana</t>
+  </si>
+  <si>
+    <t>MARUNCIC Marko</t>
+  </si>
+  <si>
+    <t>OBRATOV Kresimir</t>
+  </si>
+  <si>
+    <t>PALAC Ivan</t>
+  </si>
+  <si>
+    <t>PERENCEVIC Vanja</t>
+  </si>
+  <si>
+    <t>PRANJIC Marko</t>
+  </si>
+  <si>
+    <t>SLADIC Sasa</t>
+  </si>
+  <si>
+    <t>SUDAREVIC Bruno</t>
+  </si>
+  <si>
+    <t>TUPEK Mia</t>
+  </si>
+  <si>
+    <t>VOJNOVIC Nika</t>
+  </si>
+  <si>
+    <t>Croacia</t>
+  </si>
+  <si>
+    <t>PULJIZ Ana Viktorija</t>
+  </si>
+  <si>
+    <t>DERMICEK Hermana</t>
+  </si>
+  <si>
+    <t>CULINA Nika</t>
+  </si>
+  <si>
+    <t>KARACIC Dominik</t>
+  </si>
+  <si>
+    <t>MARIC Ognjen</t>
+  </si>
+  <si>
+    <t>SULENTA Lucija</t>
+  </si>
+  <si>
+    <t>CVITANOVIC Aria</t>
+  </si>
+  <si>
+    <t>KRAKIC Izabela</t>
+  </si>
+  <si>
+    <t>LONCARIC Anton</t>
+  </si>
+  <si>
+    <t>LONCARIC Patrik</t>
+  </si>
+  <si>
+    <t>DOMIC Lucija</t>
+  </si>
+  <si>
+    <t>STOJKOVIC Lena</t>
+  </si>
+  <si>
+    <t>TESKERA Josip</t>
+  </si>
+  <si>
+    <t>PAVLOVIC Andrea</t>
+  </si>
+  <si>
+    <t>STRBAC Marijana Matea</t>
+  </si>
+  <si>
+    <t>CARGO Palma</t>
+  </si>
+  <si>
+    <t>DOLENC Martin</t>
+  </si>
+  <si>
+    <t>CASTILLO CASTILLO Niesterle Alejandro</t>
+  </si>
+  <si>
+    <t>DIAZ FORTUN Jordan Alejandro</t>
+  </si>
+  <si>
+    <t>HERNANDEZ BONNE Zulia</t>
+  </si>
+  <si>
+    <t>LESCAY GAY Lester Alcides</t>
+  </si>
+  <si>
+    <t>MATHEUS MOREJON Melany del Pilar</t>
+  </si>
+  <si>
+    <t>OSORIO MAYARI Alegna</t>
+  </si>
+  <si>
+    <t>PEREZ IBANEZ Keily Linet</t>
+  </si>
+  <si>
+    <t>ROBLES NARANJO Rosaidi</t>
+  </si>
+  <si>
+    <t>ACOSTA BATTE Nahomys</t>
+  </si>
+  <si>
+    <t>BRAVO BLANCO Kimy</t>
+  </si>
+  <si>
+    <t>RAMIREZ MARQUEZ Yetzis</t>
+  </si>
+  <si>
+    <t>MARIN POTRILLE Milaimys de la Cari</t>
+  </si>
+  <si>
+    <t>CARBALLOSA RAMIREZ Alexei</t>
+  </si>
+  <si>
+    <t>GONZALEZ FERNANDEZ Marelis</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ VALERO Hazael</t>
+  </si>
+  <si>
+    <t>FIGUEREDO BRINGA Niuska</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ DIEZ Alejandro</t>
+  </si>
+  <si>
+    <t>ALAYO MOLINER Jorge Luis</t>
+  </si>
+  <si>
+    <t>AYON PICAYO Miguel Angel</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>KAMANGA Tazana</t>
+  </si>
+  <si>
+    <t>ANDERSEN Alexander</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>MADSEN Jacob</t>
+  </si>
+  <si>
+    <t>PEDERSEN Sofie Heby</t>
+  </si>
+  <si>
+    <t>SAABYE Mie</t>
+  </si>
+  <si>
+    <t>WINTERBERG-POULSEN Jonas</t>
+  </si>
+  <si>
+    <t>HOEJGAARD Nicolai</t>
+  </si>
+  <si>
+    <t>NORMANN Anne Wennerwald</t>
+  </si>
+  <si>
+    <t>LYCK Laura</t>
+  </si>
+  <si>
+    <t>GRUNDSOEE Stephanie Laura Scurrah</t>
+  </si>
+  <si>
+    <t>BENDIX MADSEN Sif</t>
+  </si>
+  <si>
+    <t>ALI HASSAN Hamze</t>
+  </si>
+  <si>
+    <t>MAHDI DJAMA Nabil</t>
+  </si>
+  <si>
+    <t>MOHAMED IBRAHIM Farhan</t>
+  </si>
+  <si>
+    <t>FAISSAL ABDOURAHMAN Houda</t>
+  </si>
+  <si>
+    <t>ISMAEL ADEN Safa</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>DURAND Chester</t>
+  </si>
+  <si>
+    <t>GEORGE Tia</t>
+  </si>
+  <si>
+    <t>BURTON Adicia</t>
+  </si>
+  <si>
+    <t>LOCKHART Ethlyne Renitta</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>ANGULO Juleisy</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>BUENO Kevin</t>
+  </si>
+  <si>
+    <t>HERRERA Justine</t>
+  </si>
+  <si>
+    <t>MAIRONGO Jean Marcos</t>
+  </si>
+  <si>
+    <t>NAZARENO Aimara</t>
+  </si>
+  <si>
+    <t>PATIN Oscar</t>
+  </si>
+  <si>
+    <t>SUAREZ Gabriela Anahi</t>
+  </si>
+  <si>
+    <t>VILLALVA Maria</t>
+  </si>
+  <si>
+    <t>ZURITA Lorna</t>
+  </si>
+  <si>
+    <t>CHAMORRO Efrain</t>
+  </si>
+  <si>
+    <t>OCHOA Sylvia</t>
+  </si>
+  <si>
+    <t>HERNANDEZ Galo</t>
+  </si>
+  <si>
+    <t>RIVADENEIRA Nickolaie</t>
+  </si>
+  <si>
+    <t>CALVACHE Pablo</t>
+  </si>
+  <si>
+    <t>GARBOA Bryan</t>
+  </si>
+  <si>
+    <t>ORTIZ Edith</t>
+  </si>
+  <si>
+    <t>ESCUDERO NAJERA Carlos Em</t>
+  </si>
+  <si>
+    <t>PAREDES Bella</t>
+  </si>
+  <si>
+    <t>PERALTA GONZALEZ Jeremy </t>
+  </si>
+  <si>
+    <t>DELGADO Anicka</t>
+  </si>
+  <si>
+    <t>ARIAS Maria</t>
+  </si>
+  <si>
+    <t>SARMIENTO David</t>
+  </si>
+  <si>
+    <t>PADILLA Darlyn</t>
+  </si>
+  <si>
+    <t>TERAN CARVAJAL Gabriel</t>
+  </si>
+  <si>
+    <t>VEGA Paula</t>
+  </si>
+  <si>
+    <t>CASTRO Ariana</t>
+  </si>
+  <si>
+    <t>JURADO Joffre</t>
+  </si>
+  <si>
+    <t>LEON Dany</t>
+  </si>
+  <si>
+    <t>SIMISTERRA Karelys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2763,13 +3553,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2828,7 +3621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2880,7 +3673,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3074,7 +3867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3082,10 +3875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D827"/>
+  <dimension ref="A1:D1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A810" workbookViewId="0">
-      <selection activeCell="C816" sqref="C816"/>
+    <sheetView tabSelected="1" topLeftCell="A855" workbookViewId="0">
+      <selection activeCell="A976" sqref="A976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14674,6 +15467,3450 @@
         <v>901</v>
       </c>
     </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>902</v>
+      </c>
+      <c r="B828" t="s">
+        <v>5</v>
+      </c>
+      <c r="C828" t="s">
+        <v>2</v>
+      </c>
+      <c r="D828" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>903</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1</v>
+      </c>
+      <c r="C829" t="s">
+        <v>2</v>
+      </c>
+      <c r="D829" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>904</v>
+      </c>
+      <c r="B830" t="s">
+        <v>5</v>
+      </c>
+      <c r="C830" t="s">
+        <v>2</v>
+      </c>
+      <c r="D830" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>905</v>
+      </c>
+      <c r="B831" t="s">
+        <v>5</v>
+      </c>
+      <c r="C831" t="s">
+        <v>2</v>
+      </c>
+      <c r="D831" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>906</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1</v>
+      </c>
+      <c r="C832" t="s">
+        <v>2</v>
+      </c>
+      <c r="D832" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>907</v>
+      </c>
+      <c r="B833" t="s">
+        <v>5</v>
+      </c>
+      <c r="C833" t="s">
+        <v>2</v>
+      </c>
+      <c r="D833" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>908</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1</v>
+      </c>
+      <c r="C834" t="s">
+        <v>2</v>
+      </c>
+      <c r="D834" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>909</v>
+      </c>
+      <c r="B835" t="s">
+        <v>5</v>
+      </c>
+      <c r="C835" t="s">
+        <v>2</v>
+      </c>
+      <c r="D835" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>910</v>
+      </c>
+      <c r="B836" t="s">
+        <v>5</v>
+      </c>
+      <c r="C836" t="s">
+        <v>2</v>
+      </c>
+      <c r="D836" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>911</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1</v>
+      </c>
+      <c r="C837" t="s">
+        <v>2</v>
+      </c>
+      <c r="D837" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>912</v>
+      </c>
+      <c r="B838" t="s">
+        <v>5</v>
+      </c>
+      <c r="C838" t="s">
+        <v>2</v>
+      </c>
+      <c r="D838" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>913</v>
+      </c>
+      <c r="B839" t="s">
+        <v>5</v>
+      </c>
+      <c r="C839" t="s">
+        <v>39</v>
+      </c>
+      <c r="D839" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>914</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1</v>
+      </c>
+      <c r="C840" t="s">
+        <v>39</v>
+      </c>
+      <c r="D840" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>915</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1</v>
+      </c>
+      <c r="C841" t="s">
+        <v>188</v>
+      </c>
+      <c r="D841" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>916</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1</v>
+      </c>
+      <c r="C842" t="s">
+        <v>188</v>
+      </c>
+      <c r="D842" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>917</v>
+      </c>
+      <c r="B843" t="s">
+        <v>5</v>
+      </c>
+      <c r="C843" t="s">
+        <v>188</v>
+      </c>
+      <c r="D843" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>918</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1</v>
+      </c>
+      <c r="C844" t="s">
+        <v>188</v>
+      </c>
+      <c r="D844" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>919</v>
+      </c>
+      <c r="B845" t="s">
+        <v>5</v>
+      </c>
+      <c r="C845" t="s">
+        <v>188</v>
+      </c>
+      <c r="D845" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>920</v>
+      </c>
+      <c r="B846" t="s">
+        <v>5</v>
+      </c>
+      <c r="C846" t="s">
+        <v>188</v>
+      </c>
+      <c r="D846" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>921</v>
+      </c>
+      <c r="B847" t="s">
+        <v>5</v>
+      </c>
+      <c r="C847" t="s">
+        <v>188</v>
+      </c>
+      <c r="D847" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>922</v>
+      </c>
+      <c r="B848" t="s">
+        <v>5</v>
+      </c>
+      <c r="C848" t="s">
+        <v>188</v>
+      </c>
+      <c r="D848" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>923</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1</v>
+      </c>
+      <c r="C849" t="s">
+        <v>188</v>
+      </c>
+      <c r="D849" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>924</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1</v>
+      </c>
+      <c r="C850" t="s">
+        <v>188</v>
+      </c>
+      <c r="D850" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>925</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1</v>
+      </c>
+      <c r="C851" t="s">
+        <v>188</v>
+      </c>
+      <c r="D851" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>926</v>
+      </c>
+      <c r="B852" t="s">
+        <v>5</v>
+      </c>
+      <c r="C852" t="s">
+        <v>188</v>
+      </c>
+      <c r="D852" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>927</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1</v>
+      </c>
+      <c r="C853" t="s">
+        <v>188</v>
+      </c>
+      <c r="D853" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>928</v>
+      </c>
+      <c r="B854" t="s">
+        <v>5</v>
+      </c>
+      <c r="C854" t="s">
+        <v>188</v>
+      </c>
+      <c r="D854" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>929</v>
+      </c>
+      <c r="B855" t="s">
+        <v>5</v>
+      </c>
+      <c r="C855" t="s">
+        <v>188</v>
+      </c>
+      <c r="D855" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>930</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1</v>
+      </c>
+      <c r="C856" t="s">
+        <v>188</v>
+      </c>
+      <c r="D856" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>931</v>
+      </c>
+      <c r="B857" t="s">
+        <v>5</v>
+      </c>
+      <c r="C857" t="s">
+        <v>188</v>
+      </c>
+      <c r="D857" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>932</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1</v>
+      </c>
+      <c r="C858" t="s">
+        <v>188</v>
+      </c>
+      <c r="D858" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>933</v>
+      </c>
+      <c r="B859" t="s">
+        <v>5</v>
+      </c>
+      <c r="C859" t="s">
+        <v>210</v>
+      </c>
+      <c r="D859" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>934</v>
+      </c>
+      <c r="B860" t="s">
+        <v>5</v>
+      </c>
+      <c r="C860" t="s">
+        <v>54</v>
+      </c>
+      <c r="D860" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>935</v>
+      </c>
+      <c r="B861" t="s">
+        <v>5</v>
+      </c>
+      <c r="C861" t="s">
+        <v>235</v>
+      </c>
+      <c r="D861" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>936</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1</v>
+      </c>
+      <c r="C862" t="s">
+        <v>61</v>
+      </c>
+      <c r="D862" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>937</v>
+      </c>
+      <c r="B863" t="s">
+        <v>5</v>
+      </c>
+      <c r="C863" t="s">
+        <v>61</v>
+      </c>
+      <c r="D863" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>938</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1</v>
+      </c>
+      <c r="C864" t="s">
+        <v>64</v>
+      </c>
+      <c r="D864" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>939</v>
+      </c>
+      <c r="B865" t="s">
+        <v>5</v>
+      </c>
+      <c r="C865" t="s">
+        <v>64</v>
+      </c>
+      <c r="D865" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>940</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1</v>
+      </c>
+      <c r="C866" t="s">
+        <v>16</v>
+      </c>
+      <c r="D866" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>941</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1</v>
+      </c>
+      <c r="C867" t="s">
+        <v>16</v>
+      </c>
+      <c r="D867" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>942</v>
+      </c>
+      <c r="B868" t="s">
+        <v>5</v>
+      </c>
+      <c r="C868" t="s">
+        <v>16</v>
+      </c>
+      <c r="D868" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>943</v>
+      </c>
+      <c r="B869" t="s">
+        <v>5</v>
+      </c>
+      <c r="C869" t="s">
+        <v>16</v>
+      </c>
+      <c r="D869" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>944</v>
+      </c>
+      <c r="B870" t="s">
+        <v>5</v>
+      </c>
+      <c r="C870" t="s">
+        <v>16</v>
+      </c>
+      <c r="D870" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>945</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1</v>
+      </c>
+      <c r="C871" t="s">
+        <v>77</v>
+      </c>
+      <c r="D871" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>946</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1</v>
+      </c>
+      <c r="C872" t="s">
+        <v>79</v>
+      </c>
+      <c r="D872" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>947</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1</v>
+      </c>
+      <c r="C873" t="s">
+        <v>75</v>
+      </c>
+      <c r="D873" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>948</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1</v>
+      </c>
+      <c r="C874" t="s">
+        <v>83</v>
+      </c>
+      <c r="D874" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>949</v>
+      </c>
+      <c r="B875" t="s">
+        <v>5</v>
+      </c>
+      <c r="C875" t="s">
+        <v>8</v>
+      </c>
+      <c r="D875" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>950</v>
+      </c>
+      <c r="B876" t="s">
+        <v>5</v>
+      </c>
+      <c r="C876" t="s">
+        <v>8</v>
+      </c>
+      <c r="D876" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>951</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1</v>
+      </c>
+      <c r="C877" t="s">
+        <v>300</v>
+      </c>
+      <c r="D877" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>952</v>
+      </c>
+      <c r="B878" t="s">
+        <v>5</v>
+      </c>
+      <c r="C878" t="s">
+        <v>300</v>
+      </c>
+      <c r="D878" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>953</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1</v>
+      </c>
+      <c r="C879" t="s">
+        <v>300</v>
+      </c>
+      <c r="D879" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>954</v>
+      </c>
+      <c r="B880" t="s">
+        <v>5</v>
+      </c>
+      <c r="C880" t="s">
+        <v>300</v>
+      </c>
+      <c r="D880" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>955</v>
+      </c>
+      <c r="B881" t="s">
+        <v>5</v>
+      </c>
+      <c r="C881" t="s">
+        <v>91</v>
+      </c>
+      <c r="D881" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>956</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1</v>
+      </c>
+      <c r="C882" t="s">
+        <v>91</v>
+      </c>
+      <c r="D882" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>957</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1</v>
+      </c>
+      <c r="C883" t="s">
+        <v>94</v>
+      </c>
+      <c r="D883" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>958</v>
+      </c>
+      <c r="B884" t="s">
+        <v>5</v>
+      </c>
+      <c r="C884" t="s">
+        <v>94</v>
+      </c>
+      <c r="D884" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>959</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1</v>
+      </c>
+      <c r="C885" t="s">
+        <v>97</v>
+      </c>
+      <c r="D885" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>960</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1</v>
+      </c>
+      <c r="C886" t="s">
+        <v>104</v>
+      </c>
+      <c r="D886" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>962</v>
+      </c>
+      <c r="B887" t="s">
+        <v>5</v>
+      </c>
+      <c r="C887" t="s">
+        <v>2</v>
+      </c>
+      <c r="D887" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>964</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1</v>
+      </c>
+      <c r="C888" t="s">
+        <v>210</v>
+      </c>
+      <c r="D888" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>965</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1</v>
+      </c>
+      <c r="C889" t="s">
+        <v>59</v>
+      </c>
+      <c r="D889" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>966</v>
+      </c>
+      <c r="B890" t="s">
+        <v>5</v>
+      </c>
+      <c r="C890" t="s">
+        <v>64</v>
+      </c>
+      <c r="D890" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>967</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1</v>
+      </c>
+      <c r="C891" t="s">
+        <v>16</v>
+      </c>
+      <c r="D891" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>968</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1</v>
+      </c>
+      <c r="C892" t="s">
+        <v>16</v>
+      </c>
+      <c r="D892" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>969</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1</v>
+      </c>
+      <c r="C893" t="s">
+        <v>2</v>
+      </c>
+      <c r="D893" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>971</v>
+      </c>
+      <c r="B894" t="s">
+        <v>5</v>
+      </c>
+      <c r="C894" t="s">
+        <v>2</v>
+      </c>
+      <c r="D894" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>972</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1</v>
+      </c>
+      <c r="C895" t="s">
+        <v>2</v>
+      </c>
+      <c r="D895" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>973</v>
+      </c>
+      <c r="B896" t="s">
+        <v>5</v>
+      </c>
+      <c r="C896" t="s">
+        <v>2</v>
+      </c>
+      <c r="D896" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>974</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1</v>
+      </c>
+      <c r="C897" t="s">
+        <v>2</v>
+      </c>
+      <c r="D897" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>975</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1</v>
+      </c>
+      <c r="C898" t="s">
+        <v>2</v>
+      </c>
+      <c r="D898" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>976</v>
+      </c>
+      <c r="B899" t="s">
+        <v>5</v>
+      </c>
+      <c r="C899" t="s">
+        <v>2</v>
+      </c>
+      <c r="D899" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>977</v>
+      </c>
+      <c r="B900" t="s">
+        <v>5</v>
+      </c>
+      <c r="C900" t="s">
+        <v>2</v>
+      </c>
+      <c r="D900" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>978</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1</v>
+      </c>
+      <c r="C901" t="s">
+        <v>2</v>
+      </c>
+      <c r="D901" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>979</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1</v>
+      </c>
+      <c r="C902" t="s">
+        <v>2</v>
+      </c>
+      <c r="D902" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>980</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1</v>
+      </c>
+      <c r="C903" t="s">
+        <v>47</v>
+      </c>
+      <c r="D903" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>981</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1</v>
+      </c>
+      <c r="C904" t="s">
+        <v>47</v>
+      </c>
+      <c r="D904" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>982</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1</v>
+      </c>
+      <c r="C905" t="s">
+        <v>47</v>
+      </c>
+      <c r="D905" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>983</v>
+      </c>
+      <c r="B906" t="s">
+        <v>5</v>
+      </c>
+      <c r="C906" t="s">
+        <v>47</v>
+      </c>
+      <c r="D906" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>984</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1</v>
+      </c>
+      <c r="C907" t="s">
+        <v>47</v>
+      </c>
+      <c r="D907" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>985</v>
+      </c>
+      <c r="B908" t="s">
+        <v>5</v>
+      </c>
+      <c r="C908" t="s">
+        <v>47</v>
+      </c>
+      <c r="D908" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>986</v>
+      </c>
+      <c r="B909" t="s">
+        <v>5</v>
+      </c>
+      <c r="C909" t="s">
+        <v>47</v>
+      </c>
+      <c r="D909" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>987</v>
+      </c>
+      <c r="B910" t="s">
+        <v>5</v>
+      </c>
+      <c r="C910" t="s">
+        <v>47</v>
+      </c>
+      <c r="D910" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>988</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1</v>
+      </c>
+      <c r="C911" t="s">
+        <v>59</v>
+      </c>
+      <c r="D911" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>989</v>
+      </c>
+      <c r="B912" t="s">
+        <v>5</v>
+      </c>
+      <c r="C912" t="s">
+        <v>64</v>
+      </c>
+      <c r="D912" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>990</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1</v>
+      </c>
+      <c r="C913" t="s">
+        <v>64</v>
+      </c>
+      <c r="D913" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>991</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1</v>
+      </c>
+      <c r="C914" t="s">
+        <v>14</v>
+      </c>
+      <c r="D914" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>992</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1</v>
+      </c>
+      <c r="C915" t="s">
+        <v>14</v>
+      </c>
+      <c r="D915" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>993</v>
+      </c>
+      <c r="B916" t="s">
+        <v>5</v>
+      </c>
+      <c r="C916" t="s">
+        <v>14</v>
+      </c>
+      <c r="D916" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>994</v>
+      </c>
+      <c r="B917" t="s">
+        <v>5</v>
+      </c>
+      <c r="C917" t="s">
+        <v>66</v>
+      </c>
+      <c r="D917" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>995</v>
+      </c>
+      <c r="B918" t="s">
+        <v>5</v>
+      </c>
+      <c r="C918" t="s">
+        <v>66</v>
+      </c>
+      <c r="D918" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>996</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1</v>
+      </c>
+      <c r="C919" t="s">
+        <v>16</v>
+      </c>
+      <c r="D919" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>997</v>
+      </c>
+      <c r="B920" t="s">
+        <v>5</v>
+      </c>
+      <c r="C920" t="s">
+        <v>16</v>
+      </c>
+      <c r="D920" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>998</v>
+      </c>
+      <c r="B921" t="s">
+        <v>5</v>
+      </c>
+      <c r="C921" t="s">
+        <v>16</v>
+      </c>
+      <c r="D921" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>999</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1</v>
+      </c>
+      <c r="C922" t="s">
+        <v>16</v>
+      </c>
+      <c r="D922" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B923" t="s">
+        <v>5</v>
+      </c>
+      <c r="C923" t="s">
+        <v>77</v>
+      </c>
+      <c r="D923" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1</v>
+      </c>
+      <c r="C924" t="s">
+        <v>77</v>
+      </c>
+      <c r="D924" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A925" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1</v>
+      </c>
+      <c r="C925" t="s">
+        <v>284</v>
+      </c>
+      <c r="D925" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1</v>
+      </c>
+      <c r="C926" t="s">
+        <v>284</v>
+      </c>
+      <c r="D926" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1</v>
+      </c>
+      <c r="C927" t="s">
+        <v>284</v>
+      </c>
+      <c r="D927" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1</v>
+      </c>
+      <c r="C928" t="s">
+        <v>284</v>
+      </c>
+      <c r="D928" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1</v>
+      </c>
+      <c r="C929" t="s">
+        <v>284</v>
+      </c>
+      <c r="D929" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1</v>
+      </c>
+      <c r="C930" t="s">
+        <v>284</v>
+      </c>
+      <c r="D930" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1</v>
+      </c>
+      <c r="C931" t="s">
+        <v>284</v>
+      </c>
+      <c r="D931" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1</v>
+      </c>
+      <c r="C932" t="s">
+        <v>284</v>
+      </c>
+      <c r="D932" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1</v>
+      </c>
+      <c r="C933" t="s">
+        <v>284</v>
+      </c>
+      <c r="D933" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1</v>
+      </c>
+      <c r="C934" t="s">
+        <v>284</v>
+      </c>
+      <c r="D934" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1</v>
+      </c>
+      <c r="C935" t="s">
+        <v>284</v>
+      </c>
+      <c r="D935" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1</v>
+      </c>
+      <c r="C936" t="s">
+        <v>284</v>
+      </c>
+      <c r="D936" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B937" t="s">
+        <v>5</v>
+      </c>
+      <c r="C937" t="s">
+        <v>87</v>
+      </c>
+      <c r="D937" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1</v>
+      </c>
+      <c r="C938" t="s">
+        <v>8</v>
+      </c>
+      <c r="D938" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B939" t="s">
+        <v>5</v>
+      </c>
+      <c r="C939" t="s">
+        <v>300</v>
+      </c>
+      <c r="D939" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1</v>
+      </c>
+      <c r="C940" t="s">
+        <v>300</v>
+      </c>
+      <c r="D940" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B941" t="s">
+        <v>5</v>
+      </c>
+      <c r="C941" t="s">
+        <v>94</v>
+      </c>
+      <c r="D941" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1</v>
+      </c>
+      <c r="C942" t="s">
+        <v>97</v>
+      </c>
+      <c r="D942" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1</v>
+      </c>
+      <c r="C943" t="s">
+        <v>101</v>
+      </c>
+      <c r="D943" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B944" t="s">
+        <v>5</v>
+      </c>
+      <c r="C944" t="s">
+        <v>101</v>
+      </c>
+      <c r="D944" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B945" t="s">
+        <v>5</v>
+      </c>
+      <c r="C945" t="s">
+        <v>2</v>
+      </c>
+      <c r="D945" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1</v>
+      </c>
+      <c r="C946" t="s">
+        <v>2</v>
+      </c>
+      <c r="D946" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1</v>
+      </c>
+      <c r="C947" t="s">
+        <v>16</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1</v>
+      </c>
+      <c r="C948" t="s">
+        <v>2</v>
+      </c>
+      <c r="D948" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B949" t="s">
+        <v>5</v>
+      </c>
+      <c r="C949" t="s">
+        <v>16</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B950" t="s">
+        <v>5</v>
+      </c>
+      <c r="C950" t="s">
+        <v>2</v>
+      </c>
+      <c r="D950" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1</v>
+      </c>
+      <c r="C951" t="s">
+        <v>8</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B952" t="s">
+        <v>5</v>
+      </c>
+      <c r="C952" t="s">
+        <v>94</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B953" t="s">
+        <v>5</v>
+      </c>
+      <c r="C953" t="s">
+        <v>2</v>
+      </c>
+      <c r="D953" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1</v>
+      </c>
+      <c r="C954" t="s">
+        <v>54</v>
+      </c>
+      <c r="D954" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B955" t="s">
+        <v>5</v>
+      </c>
+      <c r="C955" t="s">
+        <v>224</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B956" t="s">
+        <v>5</v>
+      </c>
+      <c r="C956" t="s">
+        <v>224</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B957" t="s">
+        <v>5</v>
+      </c>
+      <c r="C957" t="s">
+        <v>224</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B958" t="s">
+        <v>5</v>
+      </c>
+      <c r="C958" t="s">
+        <v>224</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B959" t="s">
+        <v>5</v>
+      </c>
+      <c r="C959" t="s">
+        <v>224</v>
+      </c>
+      <c r="D959" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C960" t="s">
+        <v>224</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C961" t="s">
+        <v>224</v>
+      </c>
+      <c r="D961" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C962" t="s">
+        <v>224</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C963" t="s">
+        <v>224</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C964" t="s">
+        <v>224</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1</v>
+      </c>
+      <c r="C965" t="s">
+        <v>235</v>
+      </c>
+      <c r="D965" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1</v>
+      </c>
+      <c r="C966" t="s">
+        <v>16</v>
+      </c>
+      <c r="D966" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C967" t="s">
+        <v>16</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C968" t="s">
+        <v>108</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C969" t="s">
+        <v>108</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1</v>
+      </c>
+      <c r="C970" t="s">
+        <v>2</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1</v>
+      </c>
+      <c r="C971" t="s">
+        <v>188</v>
+      </c>
+      <c r="D971" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1</v>
+      </c>
+      <c r="C972" t="s">
+        <v>188</v>
+      </c>
+      <c r="D972" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C973" t="s">
+        <v>188</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C974" t="s">
+        <v>188</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C975" t="s">
+        <v>188</v>
+      </c>
+      <c r="D975" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C976" t="s">
+        <v>188</v>
+      </c>
+      <c r="D976" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1</v>
+      </c>
+      <c r="C977" t="s">
+        <v>188</v>
+      </c>
+      <c r="D977" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1</v>
+      </c>
+      <c r="C978" t="s">
+        <v>188</v>
+      </c>
+      <c r="D978" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1</v>
+      </c>
+      <c r="C979" t="s">
+        <v>188</v>
+      </c>
+      <c r="D979" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C980" t="s">
+        <v>188</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C981" t="s">
+        <v>188</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C982" t="s">
+        <v>188</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1</v>
+      </c>
+      <c r="C983" t="s">
+        <v>188</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C984" t="s">
+        <v>188</v>
+      </c>
+      <c r="D984" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1</v>
+      </c>
+      <c r="C985" t="s">
+        <v>188</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C986" t="s">
+        <v>188</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1</v>
+      </c>
+      <c r="C987" t="s">
+        <v>188</v>
+      </c>
+      <c r="D987" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1</v>
+      </c>
+      <c r="C988" t="s">
+        <v>188</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1</v>
+      </c>
+      <c r="C989" t="s">
+        <v>64</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1</v>
+      </c>
+      <c r="C990" t="s">
+        <v>14</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1</v>
+      </c>
+      <c r="C991" t="s">
+        <v>16</v>
+      </c>
+      <c r="D991" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C992" t="s">
+        <v>16</v>
+      </c>
+      <c r="D992" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C993" t="s">
+        <v>16</v>
+      </c>
+      <c r="D993" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1</v>
+      </c>
+      <c r="C994" t="s">
+        <v>16</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1</v>
+      </c>
+      <c r="C995" t="s">
+        <v>83</v>
+      </c>
+      <c r="D995" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1</v>
+      </c>
+      <c r="C996" t="s">
+        <v>83</v>
+      </c>
+      <c r="D996" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C997" t="s">
+        <v>83</v>
+      </c>
+      <c r="D997" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C998" t="s">
+        <v>83</v>
+      </c>
+      <c r="D998" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1</v>
+      </c>
+      <c r="C999" t="s">
+        <v>8</v>
+      </c>
+      <c r="D999" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>1132</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C274"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/YOG.xlsx
+++ b/YOG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18165" windowHeight="5175"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15990" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$1:$C$274</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4292" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4877" uniqueCount="1313">
   <si>
     <t>YARI Nazi</t>
   </si>
@@ -3507,6 +3508,462 @@
   </si>
   <si>
     <t>SIMISTERRA Karelys</t>
+  </si>
+  <si>
+    <t>AYMAN IBRAHIM BARAKAT Rawan</t>
+  </si>
+  <si>
+    <t>KHALED MAHMOUD Rana</t>
+  </si>
+  <si>
+    <t>OSAMA MOHAMED Mohamed</t>
+  </si>
+  <si>
+    <t>TAREK ISMAIL MAHMOUD Mohamed</t>
+  </si>
+  <si>
+    <t>MOSTAFA KAMEL Mohamed</t>
+  </si>
+  <si>
+    <t>HAYTHAM MOHAMED Jana</t>
+  </si>
+  <si>
+    <t>KHALED ABDELRAFEA IBRAHIM Nouran</t>
+  </si>
+  <si>
+    <t>NABIL MOHAMED BEKHIT Hana</t>
+  </si>
+  <si>
+    <t>TAWHEED Enas</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>ALI KARAR ALI MOUSSA Youssef</t>
+  </si>
+  <si>
+    <t>ELSAWY AWAD ELBAZ Ahmed</t>
+  </si>
+  <si>
+    <t>MAMDOUH MOHAMED MADBOLY Marwan</t>
+  </si>
+  <si>
+    <t>SALAH ELDIN Salma</t>
+  </si>
+  <si>
+    <t>YOUSSUF Sohaila</t>
+  </si>
+  <si>
+    <t>ELNAGGAR Ahmed Nasser</t>
+  </si>
+  <si>
+    <t>AMER Mariam</t>
+  </si>
+  <si>
+    <t>ELARABY Mazen</t>
+  </si>
+  <si>
+    <t>ELSAYED Mohamed</t>
+  </si>
+  <si>
+    <t>HANY Noha</t>
+  </si>
+  <si>
+    <t>MAROUF Loaay</t>
+  </si>
+  <si>
+    <t>ALGARWANY Abdelrahman</t>
+  </si>
+  <si>
+    <t>ALI Mohamed Ahmed</t>
+  </si>
+  <si>
+    <t>HASSAN Belal Elsayed</t>
+  </si>
+  <si>
+    <t>HASSAN Youssif Mohsen</t>
+  </si>
+  <si>
+    <t>KOTB Moustafa Abdelmagid</t>
+  </si>
+  <si>
+    <t>MOHAMED Mohamed Talaat</t>
+  </si>
+  <si>
+    <t>MOHAMED Ragab Ramadan</t>
+  </si>
+  <si>
+    <t>MORSY Moamen Hemdan</t>
+  </si>
+  <si>
+    <t>SALMAN Mohamed Ahmed</t>
+  </si>
+  <si>
+    <t>YASSIN Ahmed Karam</t>
+  </si>
+  <si>
+    <t>AFIFY Mohamed</t>
+  </si>
+  <si>
+    <t>IBRAHIM Zeina</t>
+  </si>
+  <si>
+    <t>SOBHY Tia</t>
+  </si>
+  <si>
+    <t>MOHAMED FAHMY Ahmed</t>
+  </si>
+  <si>
+    <t>MOUSAAD MOHAMED Alaa</t>
+  </si>
+  <si>
+    <t>NASR ELGEWILY Yasmin</t>
+  </si>
+  <si>
+    <t>MOSTAFA Abdalla Galal Mohamed</t>
+  </si>
+  <si>
+    <t>SAID Neama Said Fahmi</t>
+  </si>
+  <si>
+    <t>AHMED Hala Wael Imbabi</t>
+  </si>
+  <si>
+    <t>ISMAIL Fathi Tarek Fathi Attia</t>
+  </si>
+  <si>
+    <t>KHALIL Ahmed Mahmoud Elsa</t>
+  </si>
+  <si>
+    <t>MAHMOUD Sara Gouda Farouk</t>
+  </si>
+  <si>
+    <t>SHAABAN Abdalla Mohamed S</t>
+  </si>
+  <si>
+    <t>WEHIB Shady Elkhalil Ibrahim</t>
+  </si>
+  <si>
+    <t>AHMED MOHAMED Mohamed</t>
+  </si>
+  <si>
+    <t>ATEF Sandy</t>
+  </si>
+  <si>
+    <t>MOHAMED ABOUZAID Enjy</t>
+  </si>
+  <si>
+    <t>SAMEH Abdelrahman</t>
+  </si>
+  <si>
+    <t>ABDELMAKSOUD Salma</t>
+  </si>
+  <si>
+    <t>ELGENDY Ahmed</t>
+  </si>
+  <si>
+    <t>AHMED MOHAMED Mostafa</t>
+  </si>
+  <si>
+    <t>HAMDY IBRAHIM Omar</t>
+  </si>
+  <si>
+    <t>MAHMOUD MOHAMED Dareen</t>
+  </si>
+  <si>
+    <t>ADEL MAHMOUD Eyad</t>
+  </si>
+  <si>
+    <t>MAGDY MAHMOUD BADAWY </t>
+  </si>
+  <si>
+    <t>MOHAMED KHALAF Abdelrahman</t>
+  </si>
+  <si>
+    <t>ABDEL-AZIZ Youssef</t>
+  </si>
+  <si>
+    <t>ALHODABY Marwa</t>
+  </si>
+  <si>
+    <t>AMR SAID MOHAMED AZZAM Nada</t>
+  </si>
+  <si>
+    <t>TOLBA Youssof</t>
+  </si>
+  <si>
+    <t>ABDELFATAH Omar</t>
+  </si>
+  <si>
+    <t>DARWISH Farida</t>
+  </si>
+  <si>
+    <t>TAREK Mohamed</t>
+  </si>
+  <si>
+    <t>YASSEER MOHAMED Maram</t>
+  </si>
+  <si>
+    <t>MAAROUF RABIA SOWILAM Moamen</t>
+  </si>
+  <si>
+    <t>WAEL IBRAHIM Salma</t>
+  </si>
+  <si>
+    <t>HAMDY SAMIR Nada</t>
+  </si>
+  <si>
+    <t>YASSER ELSAYED Nariman</t>
+  </si>
+  <si>
+    <t>MENJIVAR Gilberto</t>
+  </si>
+  <si>
+    <t>El salvador</t>
+  </si>
+  <si>
+    <t>STEINER Victor</t>
+  </si>
+  <si>
+    <t>TREJO Melany</t>
+  </si>
+  <si>
+    <t>CANJURA ARTIGA Uriel Francisco</t>
+  </si>
+  <si>
+    <t>ALMARZOOQI Omar</t>
+  </si>
+  <si>
+    <t>Emiratos arabes unidos</t>
+  </si>
+  <si>
+    <t>ALHAJERI Mohamed</t>
+  </si>
+  <si>
+    <t>ALHELOO Reema</t>
+  </si>
+  <si>
+    <t>ALAMERI Sarah</t>
+  </si>
+  <si>
+    <t>ALMADANI Mai</t>
+  </si>
+  <si>
+    <t>ALQASIMI Shaikh Mohammed</t>
+  </si>
+  <si>
+    <t>ALMAAZMI Latifa</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>AMAR Sebah</t>
+  </si>
+  <si>
+    <t>GHEBREMARIAM Haben</t>
+  </si>
+  <si>
+    <t>GOITOM Meron</t>
+  </si>
+  <si>
+    <t>MARISKOS HIDRU Kisanet</t>
+  </si>
+  <si>
+    <t>YAMANE Abel</t>
+  </si>
+  <si>
+    <t>HAILU Biniam</t>
+  </si>
+  <si>
+    <t>KIDANE Desiet</t>
+  </si>
+  <si>
+    <t>MESFIN Hager</t>
+  </si>
+  <si>
+    <t>TSEGAY Danait</t>
+  </si>
+  <si>
+    <t>FORSTER Viktoria</t>
+  </si>
+  <si>
+    <t>KOVACOVICOVA Lenka</t>
+  </si>
+  <si>
+    <t>KUBIS Lubomir</t>
+  </si>
+  <si>
+    <t>MURCKO Oliver</t>
+  </si>
+  <si>
+    <t>PAULINY Andrej</t>
+  </si>
+  <si>
+    <t>VRECKOVA Michaela</t>
+  </si>
+  <si>
+    <t>TRIEBELOVA Jessica</t>
+  </si>
+  <si>
+    <t>KUBIS Lukas</t>
+  </si>
+  <si>
+    <t>MERIAC Tomas</t>
+  </si>
+  <si>
+    <t>NAGY Patrik</t>
+  </si>
+  <si>
+    <t>PAULECHOVA Radka</t>
+  </si>
+  <si>
+    <t>Eslovaquia</t>
+  </si>
+  <si>
+    <t>KURIC Peter</t>
+  </si>
+  <si>
+    <t>BACO Sebastian</t>
+  </si>
+  <si>
+    <t>BOHAC Tibor</t>
+  </si>
+  <si>
+    <t>FILIP Jakub</t>
+  </si>
+  <si>
+    <t>KOLLAR Kevin</t>
+  </si>
+  <si>
+    <t>KORICINA Jozef</t>
+  </si>
+  <si>
+    <t>KURUC Marek</t>
+  </si>
+  <si>
+    <t>MEDON Kristian</t>
+  </si>
+  <si>
+    <t>MORAVEC Rastislav</t>
+  </si>
+  <si>
+    <t>SEVCIK Matus</t>
+  </si>
+  <si>
+    <t>SLEHOFER Matus</t>
+  </si>
+  <si>
+    <t>BARTO Alex</t>
+  </si>
+  <si>
+    <t>KOSA Tomas</t>
+  </si>
+  <si>
+    <t>CABALA Sebastian</t>
+  </si>
+  <si>
+    <t>DUSA Matej</t>
+  </si>
+  <si>
+    <t>GAJDOS David</t>
+  </si>
+  <si>
+    <t>POTOCKA Tamara</t>
+  </si>
+  <si>
+    <t>ZABORSKA Miroslava</t>
+  </si>
+  <si>
+    <t>LUKNAROVA Emanuela</t>
+  </si>
+  <si>
+    <t>PECSUKOVA Katarina</t>
+  </si>
+  <si>
+    <t>KUKULKOVA Tatiana</t>
+  </si>
+  <si>
+    <t>VENGRINI Jergus</t>
+  </si>
+  <si>
+    <t>GLOJNARIC Leja</t>
+  </si>
+  <si>
+    <t>Eslovenia</t>
+  </si>
+  <si>
+    <t>KORDEZ Mitja</t>
+  </si>
+  <si>
+    <t>ZAJC Tjasa</t>
+  </si>
+  <si>
+    <t>POLANC Petra</t>
+  </si>
+  <si>
+    <t>GROZNIK Erik</t>
+  </si>
+  <si>
+    <t>HIRSCHMANN Adrian</t>
+  </si>
+  <si>
+    <t>OSRECKI Dan</t>
+  </si>
+  <si>
+    <t>RAZDEVSEK Jan</t>
+  </si>
+  <si>
+    <t>OMRZEL Aljaz</t>
+  </si>
+  <si>
+    <t>SKOK Anze</t>
+  </si>
+  <si>
+    <t>LUKAN Vita</t>
+  </si>
+  <si>
+    <t>RAKOVEC Lucka</t>
+  </si>
+  <si>
+    <t>LOBNIK Metka</t>
+  </si>
+  <si>
+    <t>POGOREVC Rok</t>
+  </si>
+  <si>
+    <t>CELIK Tina</t>
+  </si>
+  <si>
+    <t>KLANCAR Neza</t>
+  </si>
+  <si>
+    <t>KORDEZ Gal</t>
+  </si>
+  <si>
+    <t>MOZE Matija</t>
+  </si>
+  <si>
+    <t>TOMINC Lan</t>
+  </si>
+  <si>
+    <t>MACCHI Ilaria</t>
+  </si>
+  <si>
+    <t>AUGUSTIN Nik</t>
+  </si>
+  <si>
+    <t>JUVAN Kaja</t>
+  </si>
+  <si>
+    <t>VOVK Aleksandra</t>
+  </si>
+  <si>
+    <t>SKRJANC Jan</t>
+  </si>
+  <si>
+    <t>VODISEK Toni</t>
   </si>
 </sst>
 </file>
@@ -3867,7 +4324,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3875,10 +4332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1073"/>
+  <dimension ref="A1:D1220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A855" workbookViewId="0">
-      <selection activeCell="A976" sqref="A976"/>
+    <sheetView tabSelected="1" topLeftCell="A1183" workbookViewId="0">
+      <selection activeCell="A1221" sqref="A1221:XFD1221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3886,7 +4343,7 @@
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -18909,6 +19366,2055 @@
       </c>
       <c r="D1073" t="s">
         <v>1132</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>1288</v>
       </c>
     </row>
   </sheetData>

--- a/YOG.xlsx
+++ b/YOG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia Lencinas\git\TP3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ficheros-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8561" uniqueCount="2276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8976" uniqueCount="2381">
   <si>
     <t>YARI Nazi</t>
   </si>
@@ -6857,6 +6857,321 @@
   </si>
   <si>
     <t>Italia</t>
+  </si>
+  <si>
+    <t>BROWN Shanthamoi</t>
+  </si>
+  <si>
+    <t>DEER Daniella</t>
+  </si>
+  <si>
+    <t>EDWARDS Apalos</t>
+  </si>
+  <si>
+    <t>EVERETT Michali</t>
+  </si>
+  <si>
+    <t>FARQUHARSON Kimar</t>
+  </si>
+  <si>
+    <t>FOREMAN Shantae</t>
+  </si>
+  <si>
+    <t>LOWE Shacquille</t>
+  </si>
+  <si>
+    <t>NUGENT Ackera</t>
+  </si>
+  <si>
+    <t>SLOLEY Danielle</t>
+  </si>
+  <si>
+    <t>WATSON Antonio</t>
+  </si>
+  <si>
+    <t>WHITEHORNE Evaldo</t>
+  </si>
+  <si>
+    <t>MACDONALD Emily</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>DEGUCHI Haruto</t>
+  </si>
+  <si>
+    <t>FURUSAWA Kazuki</t>
+  </si>
+  <si>
+    <t>IKEDA Seiryo</t>
+  </si>
+  <si>
+    <t>ISHIDA Kosuke</t>
+  </si>
+  <si>
+    <t>IWAKAWA Yusuke</t>
+  </si>
+  <si>
+    <t>KAJIYAMA Rintaro</t>
+  </si>
+  <si>
+    <t>KANEMITSU Yuki</t>
+  </si>
+  <si>
+    <t>NAKAMURA Kentaro</t>
+  </si>
+  <si>
+    <t>NAKAMURA Yuika</t>
+  </si>
+  <si>
+    <t>NAKATSUGAWA Azuki</t>
+  </si>
+  <si>
+    <t>NIISAKA Takako</t>
+  </si>
+  <si>
+    <t>SUGATA Miyaka</t>
+  </si>
+  <si>
+    <t>UEDA Maki</t>
+  </si>
+  <si>
+    <t>WADA Koki</t>
+  </si>
+  <si>
+    <t>MIZUI Hirari</t>
+  </si>
+  <si>
+    <t>NARAOKA Kodai</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Shigekix</t>
+  </si>
+  <si>
+    <t>MASUDA Yuichi</t>
+  </si>
+  <si>
+    <t>NAGARE Miru</t>
+  </si>
+  <si>
+    <t>OSHIMO Yuma</t>
+  </si>
+  <si>
+    <t>TANNO Kanami</t>
+  </si>
+  <si>
+    <t>DOHI Keita</t>
+  </si>
+  <si>
+    <t>NAKAMURA Mao</t>
+  </si>
+  <si>
+    <t>TANAKA Shuta</t>
+  </si>
+  <si>
+    <t>ASAMI Seiya</t>
+  </si>
+  <si>
+    <t>KATO Hibiki</t>
+  </si>
+  <si>
+    <t>UENO Yuka</t>
+  </si>
+  <si>
+    <t>ABE Mirano</t>
+  </si>
+  <si>
+    <t>ARAI Ichika</t>
+  </si>
+  <si>
+    <t>IKEUCHI Aki</t>
+  </si>
+  <si>
+    <t>KOBAYASHI Mitsuki</t>
+  </si>
+  <si>
+    <t>MAEDA Miu</t>
+  </si>
+  <si>
+    <t>MIYAMOTO Mai</t>
+  </si>
+  <si>
+    <t>OINO Sara</t>
+  </si>
+  <si>
+    <t>SUTO Yuria</t>
+  </si>
+  <si>
+    <t>YAMAKAWA Rikako</t>
+  </si>
+  <si>
+    <t>YOKOYAMA Rinka</t>
+  </si>
+  <si>
+    <t>KITAZONO Takeru</t>
+  </si>
+  <si>
+    <t>YAMADA Chiharu</t>
+  </si>
+  <si>
+    <t>YAMADA Aino</t>
+  </si>
+  <si>
+    <t>FUJIMOTO Takumi</t>
+  </si>
+  <si>
+    <t>OKUNO Yuki</t>
+  </si>
+  <si>
+    <t>HISATSUNE Ryou</t>
+  </si>
+  <si>
+    <t>TSURUSE Kagetsu</t>
+  </si>
+  <si>
+    <t>NAKAMURA Kotaro</t>
+  </si>
+  <si>
+    <t>SAKAJI Kokoro</t>
+  </si>
+  <si>
+    <t>SAKIYAMA Keisei</t>
+  </si>
+  <si>
+    <t>SAWASHIMA Sakura</t>
+  </si>
+  <si>
+    <t>TAHATA Rinka</t>
+  </si>
+  <si>
+    <t>YAMAOKA Masaki</t>
+  </si>
+  <si>
+    <t>HASHIMOTO Sumire</t>
+  </si>
+  <si>
+    <t>FUJITA Hayato</t>
+  </si>
+  <si>
+    <t>KAGAMI Yuka</t>
+  </si>
+  <si>
+    <t>OZAKI Nonoka</t>
+  </si>
+  <si>
+    <t>SASAKI Wataru</t>
+  </si>
+  <si>
+    <t>YAMADA Shu</t>
+  </si>
+  <si>
+    <t>ASABA Shiori</t>
+  </si>
+  <si>
+    <t>HANAGURUMA Yu</t>
+  </si>
+  <si>
+    <t>IKEMOTO Nagisa</t>
+  </si>
+  <si>
+    <t>ISHIKAWA Shinnosuke</t>
+  </si>
+  <si>
+    <t>KOJIMA Miku</t>
+  </si>
+  <si>
+    <t>TANIGUCHI Taku</t>
+  </si>
+  <si>
+    <t>YAMAMOTO Mayuka</t>
+  </si>
+  <si>
+    <t>YOSHIDA Keisuke</t>
+  </si>
+  <si>
+    <t>SHIGEHARA Hinano</t>
+  </si>
+  <si>
+    <t>SHIMADA Shunsuke</t>
+  </si>
+  <si>
+    <t>ETO Ryo</t>
+  </si>
+  <si>
+    <t>FUJII Kentaro</t>
+  </si>
+  <si>
+    <t>FUTAMURA Kanji</t>
+  </si>
+  <si>
+    <t>ISHIDA Kippei</t>
+  </si>
+  <si>
+    <t>KAN Ryosuke</t>
+  </si>
+  <si>
+    <t>KONISHI Taisei</t>
+  </si>
+  <si>
+    <t>MAIN Tyler Maurice</t>
+  </si>
+  <si>
+    <t>MATSUMOTO Junya</t>
+  </si>
+  <si>
+    <t>NAKANISHI Kaito</t>
+  </si>
+  <si>
+    <t>OHBA Jo</t>
+  </si>
+  <si>
+    <t>UEMURA Haruhiko</t>
+  </si>
+  <si>
+    <t>YAMADA Hibiki</t>
+  </si>
+  <si>
+    <t>MAEDA Hidetaka</t>
+  </si>
+  <si>
+    <t>NAITO Yuki</t>
+  </si>
+  <si>
+    <t>SATO Naho</t>
+  </si>
+  <si>
+    <t>TAJIMA Naoki</t>
+  </si>
+  <si>
+    <t>HARIMOTO Tomokazu</t>
+  </si>
+  <si>
+    <t>HIRANO Miu</t>
+  </si>
+  <si>
+    <t>AOSHIMA Tetsuya</t>
+  </si>
+  <si>
+    <t>UEHARA Ruka</t>
+  </si>
+  <si>
+    <t>TAKAGI Aoi</t>
+  </si>
+  <si>
+    <t>TOKUYAMA Teppei</t>
+  </si>
+  <si>
+    <t>UCHIDA Maki</t>
+  </si>
+  <si>
+    <t>IKEDA Takumi</t>
+  </si>
+  <si>
+    <t>Japon</t>
   </si>
 </sst>
 </file>
@@ -6913,7 +7228,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7226,13 +7541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2141"/>
+  <dimension ref="A1:D2244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2119" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A2141" sqref="A2141"/>
+    <sheetView tabSelected="1" topLeftCell="A2241" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2154" sqref="D2154:D2244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -22899,6 +23214,9 @@
       <c r="B1119" t="s">
         <v>1</v>
       </c>
+      <c r="C1119" t="s">
+        <v>16</v>
+      </c>
       <c r="D1119" t="s">
         <v>1170</v>
       </c>
@@ -22910,6 +23228,9 @@
       <c r="B1120" t="s">
         <v>1</v>
       </c>
+      <c r="C1120" t="s">
+        <v>16</v>
+      </c>
       <c r="D1120" t="s">
         <v>1170</v>
       </c>
@@ -22921,6 +23242,9 @@
       <c r="B1121" t="s">
         <v>5</v>
       </c>
+      <c r="C1121" t="s">
+        <v>16</v>
+      </c>
       <c r="D1121" t="s">
         <v>1170</v>
       </c>
@@ -37203,6 +37527,1448 @@
       </c>
       <c r="D2141" t="s">
         <v>2275</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2142" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2143" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2144" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2145" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2146" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2147" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2148" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2149" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2150" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2151" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2152" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2153" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2154" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2155" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2155" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2156" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2157" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2158" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2159" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2160" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2161" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2161" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2162" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2163" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2164" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2164" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2165" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2166" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2167" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2168" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2169" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2170" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2171" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2172" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2173" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2174" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2175" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2176" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2177" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2178" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2179" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2180" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2181" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2182" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2183" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2183" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2184" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2185" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2186" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2186" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2187" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2187" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2188" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2188" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2189" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2189" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2190" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2190" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2191" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2191" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2192" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2192" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2193" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2193" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2194" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2194" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2195" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2195" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2196" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2196" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2196" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2197" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2197" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2197" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2198" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2198" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2198" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2199" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2199" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2199" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2200" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2200" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2200" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2201" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2201" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2201" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2202" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2202" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2202" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2203" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2203" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2204" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2204" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2205" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2205" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2206" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2206" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2207" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2207" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2208" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2208" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2209" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2209" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2210" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2210" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2210" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2211" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2211" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2212" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2212" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2213" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2213" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2214" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2214" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2215" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2215" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2215" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2216" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2216" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2217" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2218" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2218" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2219" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2219" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2219" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2220" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2220" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2220" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2221" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2221" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2222" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2222" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2223" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2223" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2224" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2224" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2225" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2225" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2226" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2226" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2227" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2227" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2228" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2228" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2229" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2229" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2230" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2230" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2231" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2231" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2232" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2232" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2233" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2233" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2234" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2234" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2235" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2235" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2236" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2236" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2237" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2237" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2238" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2238" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2239" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2239" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2240" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2240" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2241" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2241" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2242" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2242" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2243" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2243" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2244" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2244" t="s">
+        <v>2380</v>
       </c>
     </row>
   </sheetData>
